--- a/currentbuild/CodeSystem-no-kodeverk-7280.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-7280.codesystem.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T14:02:34+00:00</t>
+    <t>2022-01-31T21:57:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-7280.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-7280.codesystem.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T21:57:51+00:00</t>
+    <t>2022-02-02T08:04:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-7280.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-7280.codesystem.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T08:04:13+00:00</t>
+    <t>2022-02-02T08:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-7280.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-7280.codesystem.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T08:44:19+00:00</t>
+    <t>2022-02-02T15:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-7280.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-7280.codesystem.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T15:40:28+00:00</t>
+    <t>2022-02-03T08:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-7280.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-7280.codesystem.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T08:35:41+00:00</t>
+    <t>2022-02-03T09:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
